--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>描述</t>
   </si>
@@ -67,6 +67,10 @@
     <t>sysuser</t>
   </si>
   <si>
+    <t>后台能运行，
+前端不能运行</t>
+  </si>
+  <si>
     <t>用户删除食谱</t>
   </si>
   <si>
@@ -163,9 +167,6 @@
 Date publishDate：发布日期
 String Rimg：美食图片
 String publisher:发布者</t>
-  </si>
-  <si>
-    <t>recipes表示食谱</t>
   </si>
   <si>
     <t>管理员删除食谱</t>
@@ -235,7 +236,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,29 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +289,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -318,45 +303,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,6 +363,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -402,8 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,181 +417,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,17 +602,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,21 +631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +676,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,141 +720,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1233,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1245,7 +1237,7 @@
     <col min="4" max="4" width="31.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.5555555555556" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.8888888888889" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.8888888888889" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.8888888888889" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.8888888888889" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -1269,7 +1261,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1277,370 +1269,396 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="75" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="75" customHeight="1" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="79" customHeight="1" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="79" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="78" customHeight="1" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="78" customHeight="1" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" ht="75" customHeight="1" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="75" customHeight="1" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="79" customHeight="1" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="79" customHeight="1" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="78" customHeight="1" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="78" customHeight="1" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" ht="70.05" customHeight="1" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" ht="70.05" customHeight="1" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" ht="70.05" customHeight="1" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" ht="70.05" customHeight="1" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" ht="70.05" customHeight="1"/>
     <row r="21" ht="70.05" customHeight="1"/>
